--- a/fix-example-resources/CodeSystem-mii-cs-fall-supplement-patient-class.xlsx
+++ b/fix-example-resources/CodeSystem-mii-cs-fall-supplement-patient-class.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-08T13:33:54+00:00</t>
+    <t>2025-12-08T17:26:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
